--- a/PastaDocumentos/Orcamento.xlsx
+++ b/PastaDocumentos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\compliance\2TDSS-ExemploGit-2024\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05330E05-5DE1-46D0-9FCB-31CBDA6F2668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B2F334-D273-48B4-A978-39C7798A3309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Orçamento do projeto</t>
   </si>
@@ -45,13 +45,22 @@
     <t>Telefonia</t>
   </si>
   <si>
-    <t>R$34.000</t>
+    <t>R$34000</t>
+  </si>
+  <si>
+    <t>Energia</t>
+  </si>
+  <si>
+    <t>R$50000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +402,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -400,11 +410,20 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>